--- a/data/trans_bre/DCD-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>9.018383649624617</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18.46209332380016</v>
+        <v>18.46209332380017</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.9684013659126878</v>
@@ -627,7 +627,7 @@
         <v>0.7308798422050591</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7453569221990505</v>
+        <v>0.7453569221990507</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.921078579033169</v>
+        <v>8.762666954446761</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.601808951966873</v>
+        <v>4.895471462441138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.18711038522978</v>
+        <v>13.876053922411</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.6390202086009706</v>
+        <v>0.6010555908030661</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4057878503676999</v>
+        <v>0.3493328694995705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5093888202083966</v>
+        <v>0.5038159215259317</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.13733708387742</v>
+        <v>15.2106440665935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.40147351337946</v>
+        <v>12.77044634003934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.65165083034058</v>
+        <v>22.49583833156136</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.443607780600408</v>
+        <v>1.433319880975241</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.152773161842573</v>
+        <v>1.239856346879842</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.046272063251953</v>
+        <v>1.008068740593377</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>0.9991677972318853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9826952755541113</v>
+        <v>0.9826952755541115</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.324754451553475</v>
+        <v>5.044002648142066</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.633425141776961</v>
+        <v>3.409968723101251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.099465185242355</v>
+        <v>9.194961988690267</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9186620046687468</v>
+        <v>0.9053628282764211</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6089400233429632</v>
+        <v>0.5462556609868593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7234070146211424</v>
+        <v>0.7243904654355191</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.160582709758641</v>
+        <v>9.060600587779311</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.182304755731896</v>
+        <v>7.058935670571848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.52441925271716</v>
+        <v>13.42639433173678</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.145984110269571</v>
+        <v>2.197510298377075</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.589328186209975</v>
+        <v>1.539329810991554</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.280666706963291</v>
+        <v>1.272977274965502</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.371533601996087</v>
+        <v>4.194400742574857</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.836900565995601</v>
+        <v>-0.2510414820531329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.825414574562521</v>
+        <v>8.638338617631282</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1.101920277763698</v>
+        <v>1.071052104099761</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1894840076794408</v>
+        <v>-0.06853359457516896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9275544909022955</v>
+        <v>0.851200618674656</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.9582885942703</v>
+        <v>10.75728538837041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.439741764265135</v>
+        <v>5.32665861101535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.82577131388186</v>
+        <v>15.39548628655962</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>7.991815136866859</v>
+        <v>7.750801035250156</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.530613751022988</v>
+        <v>1.545597383052086</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.545733559904919</v>
+        <v>2.38096157405403</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.218772647328827</v>
+        <v>8.054933410030205</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.700192796767897</v>
+        <v>4.740183235681688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12.19328001004978</v>
+        <v>12.08009089909539</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.129702148973081</v>
+        <v>1.071500692509787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6346682255635028</v>
+        <v>0.6259919386891583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8935267677709622</v>
+        <v>0.8650645603330055</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.22215107682054</v>
+        <v>11.27015003062082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.693237102285518</v>
+        <v>7.769766967480052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.44867000047246</v>
+        <v>15.355934594754</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.888413837801379</v>
+        <v>1.844658111786843</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.267972276371859</v>
+        <v>1.249233952526465</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.278497310884579</v>
+        <v>1.263789365527819</v>
       </c>
     </row>
     <row r="16">
